--- a/biology/Microbiologie/Manuelophryidae/Manuelophryidae.xlsx
+++ b/biology/Microbiologie/Manuelophryidae/Manuelophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Manuelophryidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Manuelophrya, composé du préfixe manuel- (du latin manu, « main »), et du suffixe grec -ophrya (de grec οφρύς / ophrýs, « sourcil »), probablement en référence à la forme de ce cilié et à son tentacule lui permettant de s'attacher à son hôte.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Manuelophryidae sont des ciliés de petite taille. Leur trophont est sphérique ou en forme de sac, attaché à l'hôte par un seul tentacule en forme de bâtonnet ou par une protubérance basale de la stylothèque (gaine effilée). Certaines formes sont loriquées (c'est-à-dire vivent au sein d'une lorica ou loge). Leur reproduction se fait par un bourgeonnement latéral en forme de poche. Leur macronoyau est globuleux et on note la présence de micronoyaux et d'une vacuole contractile[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Manuelophryidae sont des ciliés de petite taille. Leur trophont est sphérique ou en forme de sac, attaché à l'hôte par un seul tentacule en forme de bâtonnet ou par une protubérance basale de la stylothèque (gaine effilée). Certaines formes sont loriquées (c'est-à-dire vivent au sein d'une lorica ou loge). Leur reproduction se fait par un bourgeonnement latéral en forme de poche. Leur macronoyau est globuleux et on note la présence de micronoyaux et d'une vacuole contractile.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Manuelophryidae vivent aussi bien dans des habitats marins que d'eau douce en tant qu'ectoparasites de ciliés sessiles[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Manuelophryidae vivent aussi bien dans des habitats marins que d'eau douce en tant qu'ectoparasites de ciliés sessiles.
 </t>
         </is>
       </c>
@@ -604,14 +622,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 mai 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 mai 2023) :
 Manuelophrya (Matthes, 1988) Jankowski, 1997
 Espèce type : Manuelophrya hannae (Guhl, 1985) Matthes, 1988
 Synonyme : Pottsiocles[note 1] hannae Guhl, 1985
 Pottsiocles Corliss, 1960
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Manuelophrya Matthes in Jankowski, 1997
 Mistarcon Jankowski, 1997
 Pseudogemmides Kormos, 1935</t>
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Manuelophryidae Dovgal (d), 2002[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Manuelophryidae Dovgal (d), 2002.
 </t>
         </is>
       </c>
